--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_18_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_18_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[4.1886415769638745, 4.724989170544564]</t>
+          <t>[4.186178948050842, 4.727451799457596]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.1884962638267833, 0.5496535380938354]</t>
+          <t>[0.18845198394337537, 0.5496978179772434]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.0001620148381671349</v>
+        <v>0.0001625298180589763</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0001620148381671349</v>
+        <v>0.0001625298180589763</v>
       </c>
       <c r="W2" t="n">
         <v>12.49045045045082</v>
